--- a/src/main/resources/original/Translations.xlsx
+++ b/src/main/resources/original/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyilmaz/Projects/text-replacer/src/main/resources/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5CF50-26FE-0441-BEC6-7D4D743578FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B55A7F8-3F0A-E944-8D33-0ABA68855728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="1460" windowWidth="28800" windowHeight="16120" xr2:uid="{6BF90685-9A62-BF47-B6E7-B8FB14EBD3D5}"/>
   </bookViews>
@@ -14242,8 +14242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A20612-7971-E543-B07A-28D57D98F125}">
   <dimension ref="A1:B891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B469" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B478" sqref="A1:B891"/>
+    <sheetView tabSelected="1" topLeftCell="B503" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
